--- a/Input Data/Update Elo/CFB_Sch_24-25 (DB Base).xlsx
+++ b/Input Data/Update Elo/CFB_Sch_24-25 (DB Base).xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbolero\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7506EB3A-8944-44AD-A4D4-4EF4FA4E89C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A7DC2D-176C-491A-B43F-009EB0C29195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1062,7 +1065,7 @@
   <dimension ref="A1:D866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1091,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>142</v>
@@ -1102,7 +1105,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -1116,7 +1119,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>129</v>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -13197,6 +13200,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Input Data/Update Elo/CFB_Sch_24-25 (DB Base).xlsx
+++ b/Input Data/Update Elo/CFB_Sch_24-25 (DB Base).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbolero\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A7DC2D-176C-491A-B43F-009EB0C29195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2164F768-2092-48BB-9995-C2B07272552F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:D866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>220</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>161</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>147</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>169</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>96</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>163</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>139</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>107</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>105</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>82</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
         <v>168</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>148</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>141</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
         <v>125</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>157</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>138</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
         <v>118</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>154</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>160</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>144</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
         <v>166</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
         <v>43</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
         <v>47</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
         <v>114</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
         <v>112</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
         <v>140</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
         <v>143</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>95</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>122</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
         <v>78</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
         <v>119</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
         <v>101</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
         <v>120</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
         <v>97</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
         <v>63</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
         <v>93</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
         <v>126</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
         <v>130</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
         <v>145</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" t="s">
         <v>60</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B81" t="s">
         <v>104</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B84" t="s">
         <v>92</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" t="s">
         <v>159</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" t="s">
         <v>44</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" t="s">
         <v>137</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" t="s">
         <v>83</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B89" t="s">
         <v>52</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" t="s">
         <v>79</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
         <v>50</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" t="s">
         <v>167</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" t="s">
         <v>90</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94" t="s">
         <v>117</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
         <v>59</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" t="s">
         <v>80</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" t="s">
         <v>72</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B101" t="s">
         <v>164</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
         <v>130</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
         <v>170</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104" t="s">
         <v>120</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B105" t="s">
         <v>124</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
         <v>28</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B107" t="s">
         <v>59</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108" t="s">
         <v>111</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
         <v>27</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B110" t="s">
         <v>168</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B111" t="s">
         <v>45</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B112" t="s">
         <v>80</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
         <v>147</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
         <v>101</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119" t="s">
         <v>125</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120" t="s">
         <v>144</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
         <v>51</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B123" t="s">
         <v>156</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
         <v>82</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
         <v>158</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
         <v>74</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B128" t="s">
         <v>160</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129" t="s">
         <v>141</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
         <v>105</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
         <v>152</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B132" t="s">
         <v>35</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
         <v>26</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B134" t="s">
         <v>81</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B136" t="s">
         <v>153</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B137" t="s">
         <v>162</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B138" t="s">
         <v>49</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B139" t="s">
         <v>95</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
         <v>154</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
         <v>131</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
         <v>55</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
         <v>91</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" t="s">
         <v>150</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
         <v>129</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B147" t="s">
         <v>109</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
         <v>22</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B149" t="s">
         <v>73</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150" t="s">
         <v>86</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B151" t="s">
         <v>167</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B152" t="s">
         <v>103</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B153" t="s">
         <v>137</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B154" t="s">
         <v>117</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B155" t="s">
         <v>165</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B156" t="s">
         <v>14</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B157" t="s">
         <v>61</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B158" t="s">
         <v>118</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B159" t="s">
         <v>99</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
         <v>116</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
         <v>44</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B162" t="s">
         <v>206</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B163" t="s">
         <v>122</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B164" t="s">
         <v>157</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B165" t="s">
         <v>23</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B166" t="s">
         <v>90</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
         <v>34</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B170" t="s">
         <v>140</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B171" t="s">
         <v>113</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B172" t="s">
         <v>133</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B173" t="s">
         <v>36</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B174" t="s">
         <v>30</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B175" t="s">
         <v>67</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B177" t="s">
         <v>69</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B179" t="s">
         <v>50</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
         <v>148</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
         <v>104</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
         <v>88</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B183" t="s">
         <v>144</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
         <v>28</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
         <v>80</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
         <v>46</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
         <v>156</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B188" t="s">
         <v>138</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
         <v>163</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B190" t="s">
         <v>72</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
         <v>32</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B192" t="s">
         <v>36</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B193" t="s">
         <v>62</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
         <v>118</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B195" t="s">
         <v>161</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
         <v>139</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
         <v>169</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
         <v>41</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
         <v>160</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
         <v>45</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
         <v>13</v>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
         <v>153</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
         <v>59</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B204" t="s">
         <v>26</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B205" t="s">
         <v>135</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B206" t="s">
         <v>82</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
         <v>57</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B208" t="s">
         <v>164</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B209" t="s">
         <v>63</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
         <v>137</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
         <v>76</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
         <v>162</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B213" t="s">
         <v>217</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B214" t="s">
         <v>111</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B215" t="s">
         <v>27</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B216" t="s">
         <v>39</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B217" t="s">
         <v>126</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B218" t="s">
         <v>69</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B219" t="s">
         <v>136</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B220" t="s">
         <v>131</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B221" t="s">
         <v>43</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
         <v>15</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B224" t="s">
         <v>107</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B225" t="s">
         <v>78</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B226" t="s">
         <v>31</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B227" t="s">
         <v>103</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B228" t="s">
         <v>149</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B229" t="s">
         <v>154</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B230" t="s">
         <v>35</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B231" t="s">
         <v>90</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B232" t="s">
         <v>166</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
         <v>112</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B234" t="s">
         <v>24</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B235" t="s">
         <v>83</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B236" t="s">
         <v>143</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B237" t="s">
         <v>168</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B238" t="s">
         <v>67</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B239" t="s">
         <v>73</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B240" t="s">
         <v>92</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B241" t="s">
         <v>52</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B242" t="s">
         <v>47</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B243" t="s">
         <v>53</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B244" t="s">
         <v>133</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B245" t="s">
         <v>112</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B246" t="s">
         <v>116</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B247" t="s">
         <v>113</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B248" t="s">
         <v>90</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B249" t="s">
         <v>166</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B250" t="s">
         <v>152</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B251" t="s">
         <v>93</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B253" t="s">
         <v>141</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B254" t="s">
         <v>156</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B255" t="s">
         <v>105</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B256" t="s">
         <v>111</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B257" t="s">
         <v>130</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B258" t="s">
         <v>124</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B259" t="s">
         <v>30</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B260" t="s">
         <v>39</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B261" t="s">
         <v>10</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B262" t="s">
         <v>165</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B263" t="s">
         <v>150</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B264" t="s">
         <v>17</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B265" t="s">
         <v>129</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B266" t="s">
         <v>157</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B267" t="s">
         <v>126</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B268" t="s">
         <v>79</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B269" t="s">
         <v>92</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B270" t="s">
         <v>159</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B271" t="s">
         <v>4</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B272" t="s">
         <v>117</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B273" t="s">
         <v>139</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B274" t="s">
         <v>135</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B275" t="s">
         <v>61</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B276" t="s">
         <v>158</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B277" t="s">
         <v>99</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B278" t="s">
         <v>155</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B279" t="s">
         <v>145</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B280" t="s">
         <v>52</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B281" t="s">
         <v>84</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B282" t="s">
         <v>103</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B283" t="s">
         <v>27</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B284" t="s">
         <v>26</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B285" t="s">
         <v>154</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B286" t="s">
         <v>118</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B287" t="s">
         <v>59</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B288" t="s">
         <v>107</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B289" t="s">
         <v>28</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B291" t="s">
         <v>164</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B292" t="s">
         <v>44</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B293" t="s">
         <v>170</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B294" t="s">
         <v>9</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B295" t="s">
         <v>163</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B296" t="s">
         <v>68</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B297" t="s">
         <v>65</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B298" t="s">
         <v>125</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B299" t="s">
         <v>60</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B300" t="s">
         <v>120</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B301" t="s">
         <v>217</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B302" t="s">
         <v>11</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B303" t="s">
         <v>96</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B304" t="s">
         <v>142</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B305" t="s">
         <v>48</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B306" t="s">
         <v>114</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B307" t="s">
         <v>135</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B308" t="s">
         <v>45</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B309" t="s">
         <v>141</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B310" t="s">
         <v>165</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B311" t="s">
         <v>48</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B312" t="s">
         <v>46</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B313" t="s">
         <v>53</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B314" t="s">
         <v>30</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B315" t="s">
         <v>220</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B316" t="s">
         <v>183</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B317" t="s">
         <v>101</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B318" t="s">
         <v>86</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B319" t="s">
         <v>113</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
         <v>8</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B321" t="s">
         <v>133</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
         <v>10</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B323" t="s">
         <v>217</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B324" t="s">
         <v>31</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B325" t="s">
         <v>103</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B326" t="s">
         <v>72</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B327" t="s">
         <v>149</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B328" t="s">
         <v>167</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B329" t="s">
         <v>14</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B330" t="s">
         <v>51</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B331" t="s">
         <v>105</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B332" t="s">
         <v>139</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B333" t="s">
         <v>59</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B334" t="s">
         <v>124</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
         <v>116</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B336" t="s">
         <v>47</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B337" t="s">
         <v>36</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B338" t="s">
         <v>130</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B339" t="s">
         <v>169</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B340" t="s">
         <v>170</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B341" t="s">
         <v>69</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B342" t="s">
         <v>7</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B343" t="s">
         <v>140</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B344" t="s">
         <v>18</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B345" t="s">
         <v>61</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B346" t="s">
         <v>147</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B347" t="s">
         <v>104</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B348" t="s">
         <v>162</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B349" t="s">
         <v>109</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B350" t="s">
         <v>155</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B351" t="s">
         <v>24</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B352" t="s">
         <v>145</v>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B353" t="s">
         <v>97</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B354" t="s">
         <v>13</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B355" t="s">
         <v>23</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B356" t="s">
         <v>34</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B357" t="s">
         <v>143</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B358" t="s">
         <v>163</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B359" t="s">
         <v>22</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B360" t="s">
         <v>78</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B361" t="s">
         <v>88</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B362" t="s">
         <v>41</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B364" t="s">
         <v>145</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B365" t="s">
         <v>183</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B366" t="s">
         <v>114</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B367" t="s">
         <v>30</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B368" t="s">
         <v>50</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B369" t="s">
         <v>35</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B370" t="s">
         <v>154</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B371" t="s">
         <v>168</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B372" t="s">
         <v>117</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B373" t="s">
         <v>122</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B374" t="s">
         <v>160</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B375" t="s">
         <v>27</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B376" t="s">
         <v>124</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B377" t="s">
         <v>26</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B378" t="s">
         <v>74</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B379" t="s">
         <v>112</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B380" t="s">
         <v>16</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B381" t="s">
         <v>141</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B382" t="s">
         <v>57</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B383" t="s">
         <v>109</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B384" t="s">
         <v>138</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B385" t="s">
         <v>164</v>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B386" t="s">
         <v>43</v>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B387" t="s">
         <v>62</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B388" t="s">
         <v>111</v>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B389" t="s">
         <v>44</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B390" t="s">
         <v>49</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B391" t="s">
         <v>31</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B392" t="s">
         <v>84</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B393" t="s">
         <v>67</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B394" t="s">
         <v>20</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B395" t="s">
         <v>55</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B396" t="s">
         <v>120</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B397" t="s">
         <v>32</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B398" t="s">
         <v>63</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B399" t="s">
         <v>18</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B400" t="s">
         <v>166</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B401" t="s">
         <v>12</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B402" t="s">
         <v>15</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B403" t="s">
         <v>155</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B404" t="s">
         <v>97</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B405" t="s">
         <v>95</v>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B406" t="s">
         <v>131</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B407" t="s">
         <v>150</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B408" t="s">
         <v>119</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B409" t="s">
         <v>136</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B410" t="s">
         <v>81</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B411" t="s">
         <v>91</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B412" t="s">
         <v>92</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B413" t="s">
         <v>4</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B414" t="s">
         <v>6</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B415" t="s">
         <v>158</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B416" t="s">
         <v>86</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B417" t="s">
         <v>159</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B418" t="s">
         <v>9</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B419" t="s">
         <v>10</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B420" t="s">
         <v>149</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B421" t="s">
         <v>99</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B422" t="s">
         <v>122</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B423" t="s">
         <v>14</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B424" t="s">
         <v>80</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B425" t="s">
         <v>82</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B426" t="s">
         <v>167</v>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B427" t="s">
         <v>137</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B428" t="s">
         <v>74</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B429" t="s">
         <v>165</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B430" t="s">
         <v>51</v>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B431" t="s">
         <v>118</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B432" t="s">
         <v>90</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B433" t="s">
         <v>126</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B434" t="s">
         <v>36</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B435" t="s">
         <v>111</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B436" t="s">
         <v>138</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B437" t="s">
         <v>31</v>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B438" t="s">
         <v>60</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B439" t="s">
         <v>22</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B440" t="s">
         <v>125</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B441" t="s">
         <v>68</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B442" t="s">
         <v>20</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B443" t="s">
         <v>69</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B444" t="s">
         <v>96</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B445" t="s">
         <v>140</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B446" t="s">
         <v>142</v>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B447" t="s">
         <v>17</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B448" t="s">
         <v>129</v>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B449" t="s">
         <v>162</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B450" t="s">
         <v>156</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B451" t="s">
         <v>83</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B452" t="s">
         <v>73</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B453" t="s">
         <v>93</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B454" t="s">
         <v>144</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B455" t="s">
         <v>76</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B456" t="s">
         <v>24</v>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B457" t="s">
         <v>95</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B458" t="s">
         <v>38</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B459" t="s">
         <v>23</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B460" t="s">
         <v>39</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B461" t="s">
         <v>220</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B462" t="s">
         <v>48</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B463" t="s">
         <v>161</v>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B464" t="s">
         <v>52</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B465" t="s">
         <v>8</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B466" t="s">
         <v>148</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B467" t="s">
         <v>5</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B468" t="s">
         <v>217</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B469" t="s">
         <v>152</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B470" t="s">
         <v>97</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B471" t="s">
         <v>169</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B472" t="s">
         <v>43</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B473" t="s">
         <v>80</v>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B474" t="s">
         <v>47</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B475" t="s">
         <v>116</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B476" t="s">
         <v>72</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B477" t="s">
         <v>167</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B478" t="s">
         <v>99</v>
@@ -7769,7 +7769,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B479" t="s">
         <v>168</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B480" t="s">
         <v>137</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B481" t="s">
         <v>139</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B482" t="s">
         <v>28</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B483" t="s">
         <v>35</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B484" t="s">
         <v>57</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B485" t="s">
         <v>118</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B486" t="s">
         <v>107</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B487" t="s">
         <v>16</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B488" t="s">
         <v>30</v>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B489" t="s">
         <v>44</v>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B490" t="s">
         <v>62</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B491" t="s">
         <v>49</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B492" t="s">
         <v>170</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B493" t="s">
         <v>65</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B494" t="s">
         <v>163</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B495" t="s">
         <v>55</v>
@@ -8007,7 +8007,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B496" t="s">
         <v>41</v>
@@ -8021,7 +8021,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B497" t="s">
         <v>125</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B498" t="s">
         <v>60</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B499" t="s">
         <v>34</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B500" t="s">
         <v>84</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B501" t="s">
         <v>11</v>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B502" t="s">
         <v>96</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B503" t="s">
         <v>79</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B504" t="s">
         <v>101</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B505" t="s">
         <v>147</v>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B506" t="s">
         <v>135</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B507" t="s">
         <v>159</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B508" t="s">
         <v>50</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B509" t="s">
         <v>129</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B510" t="s">
         <v>157</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B511" t="s">
         <v>83</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B512" t="s">
         <v>166</v>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B513" t="s">
         <v>15</v>
@@ -8259,7 +8259,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B514" t="s">
         <v>131</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B515" t="s">
         <v>76</v>
@@ -8287,7 +8287,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B516" t="s">
         <v>150</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B517" t="s">
         <v>153</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B518" t="s">
         <v>39</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B519" t="s">
         <v>220</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B520" t="s">
         <v>46</v>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B521" t="s">
         <v>114</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B522" t="s">
         <v>161</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B523" t="s">
         <v>7</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B524" t="s">
         <v>6</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B525" t="s">
         <v>183</v>
@@ -8427,7 +8427,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B526" t="s">
         <v>4</v>
@@ -8441,7 +8441,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B527" t="s">
         <v>126</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B528" t="s">
         <v>153</v>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B529" t="s">
         <v>113</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B530" t="s">
         <v>11</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B531" t="s">
         <v>103</v>
@@ -8511,7 +8511,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B532" t="s">
         <v>122</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B533" t="s">
         <v>26</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B534" t="s">
         <v>117</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B535" t="s">
         <v>82</v>
@@ -8567,7 +8567,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B536" t="s">
         <v>160</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B537" t="s">
         <v>14</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B538" t="s">
         <v>116</v>
@@ -8609,7 +8609,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B539" t="s">
         <v>141</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B540" t="s">
         <v>105</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B541" t="s">
         <v>107</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B542" t="s">
         <v>90</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B543" t="s">
         <v>51</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B544" t="s">
         <v>16</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B545" t="s">
         <v>30</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B546" t="s">
         <v>45</v>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B547" t="s">
         <v>152</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B548" t="s">
         <v>138</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B549" t="s">
         <v>169</v>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B550" t="s">
         <v>49</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B551" t="s">
         <v>62</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B552" t="s">
         <v>9</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B553" t="s">
         <v>22</v>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B554" t="s">
         <v>68</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B555" t="s">
         <v>88</v>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B556" t="s">
         <v>143</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B557" t="s">
         <v>67</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B558" t="s">
         <v>78</v>
@@ -8889,7 +8889,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B559" t="s">
         <v>55</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B560" t="s">
         <v>101</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B561" t="s">
         <v>104</v>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B562" t="s">
         <v>32</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B563" t="s">
         <v>61</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B564" t="s">
         <v>109</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B565" t="s">
         <v>17</v>
@@ -8987,7 +8987,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B566" t="s">
         <v>156</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B567" t="s">
         <v>73</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B568" t="s">
         <v>162</v>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B569" t="s">
         <v>12</v>
@@ -9043,7 +9043,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B570" t="s">
         <v>53</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B571" t="s">
         <v>86</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B572" t="s">
         <v>119</v>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B573" t="s">
         <v>148</v>
@@ -9099,7 +9099,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B574" t="s">
         <v>81</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B575" t="s">
         <v>13</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B576" t="s">
         <v>46</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B577" t="s">
         <v>136</v>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B578" t="s">
         <v>38</v>
@@ -9169,7 +9169,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B579" t="s">
         <v>91</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B580" t="s">
         <v>217</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B581" t="s">
         <v>7</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B582" t="s">
         <v>144</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B583" t="s">
         <v>92</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B584" t="s">
         <v>158</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B585" t="s">
         <v>63</v>
@@ -9267,7 +9267,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B586" t="s">
         <v>69</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B587" t="s">
         <v>107</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B588" t="s">
         <v>30</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B589" t="s">
         <v>96</v>
@@ -9323,7 +9323,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B590" t="s">
         <v>103</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B591" t="s">
         <v>47</v>
@@ -9351,7 +9351,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B592" t="s">
         <v>80</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B593" t="s">
         <v>72</v>
@@ -9379,7 +9379,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B594" t="s">
         <v>124</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B595" t="s">
         <v>27</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B596" t="s">
         <v>154</v>
@@ -9421,7 +9421,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B597" t="s">
         <v>82</v>
@@ -9435,7 +9435,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B598" t="s">
         <v>74</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B599" t="s">
         <v>57</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B600" t="s">
         <v>137</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B601" t="s">
         <v>118</v>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B602" t="s">
         <v>112</v>
@@ -9505,7 +9505,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B603" t="s">
         <v>59</v>
@@ -9519,7 +9519,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B604" t="s">
         <v>45</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B605" t="s">
         <v>170</v>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B606" t="s">
         <v>164</v>
@@ -9561,7 +9561,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B607" t="s">
         <v>130</v>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B608" t="s">
         <v>31</v>
@@ -9589,7 +9589,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B609" t="s">
         <v>133</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B610" t="s">
         <v>22</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B611" t="s">
         <v>120</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B612" t="s">
         <v>78</v>
@@ -9645,7 +9645,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B613" t="s">
         <v>143</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B614" t="s">
         <v>84</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B615" t="s">
         <v>5</v>
@@ -9687,7 +9687,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B616" t="s">
         <v>79</v>
@@ -9701,7 +9701,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B617" t="s">
         <v>140</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B618" t="s">
         <v>18</v>
@@ -9729,7 +9729,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B619" t="s">
         <v>129</v>
@@ -9743,7 +9743,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B620" t="s">
         <v>73</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B621" t="s">
         <v>155</v>
@@ -9771,7 +9771,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B622" t="s">
         <v>142</v>
@@ -9785,7 +9785,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B623" t="s">
         <v>145</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B624" t="s">
         <v>148</v>
@@ -9813,7 +9813,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B625" t="s">
         <v>53</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B626" t="s">
         <v>97</v>
@@ -9841,7 +9841,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B627" t="s">
         <v>136</v>
@@ -9855,7 +9855,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B628" t="s">
         <v>39</v>
@@ -9869,7 +9869,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B629" t="s">
         <v>48</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B630" t="s">
         <v>91</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B631" t="s">
         <v>38</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B632" t="s">
         <v>23</v>
@@ -9925,7 +9925,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B633" t="s">
         <v>104</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B634" t="s">
         <v>150</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B635" t="s">
         <v>36</v>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B636" t="s">
         <v>101</v>
@@ -9981,7 +9981,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B637" t="s">
         <v>10</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B638" t="s">
         <v>18</v>
@@ -10009,7 +10009,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B639" t="s">
         <v>116</v>
@@ -10023,7 +10023,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B640" t="s">
         <v>149</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B641" t="s">
         <v>122</v>
@@ -10051,7 +10051,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B642" t="s">
         <v>167</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B643" t="s">
         <v>117</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B644" t="s">
         <v>124</v>
@@ -10093,7 +10093,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B645" t="s">
         <v>165</v>
@@ -10107,7 +10107,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B646" t="s">
         <v>105</v>
@@ -10121,7 +10121,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B647" t="s">
         <v>139</v>
@@ -10135,7 +10135,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B648" t="s">
         <v>137</v>
@@ -10149,7 +10149,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B649" t="s">
         <v>28</v>
@@ -10163,7 +10163,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B650" t="s">
         <v>16</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B651" t="s">
         <v>152</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B652" t="s">
         <v>31</v>
@@ -10205,7 +10205,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B653" t="s">
         <v>43</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B654" t="s">
         <v>113</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B655" t="s">
         <v>126</v>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B656" t="s">
         <v>34</v>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B657" t="s">
         <v>163</v>
@@ -10275,7 +10275,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B658" t="s">
         <v>41</v>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B659" t="s">
         <v>67</v>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B660" t="s">
         <v>20</v>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B661" t="s">
         <v>65</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B662" t="s">
         <v>6</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B663" t="s">
         <v>5</v>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B664" t="s">
         <v>52</v>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B665" t="s">
         <v>8</v>
@@ -10387,7 +10387,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B666" t="s">
         <v>61</v>
@@ -10401,7 +10401,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B667" t="s">
         <v>159</v>
@@ -10415,7 +10415,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B668" t="s">
         <v>147</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B669" t="s">
         <v>50</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B670" t="s">
         <v>155</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B671" t="s">
         <v>12</v>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B672" t="s">
         <v>166</v>
@@ -10485,7 +10485,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B673" t="s">
         <v>17</v>
@@ -10499,7 +10499,7 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B674" t="s">
         <v>157</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B675" t="s">
         <v>93</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B676" t="s">
         <v>86</v>
@@ -10541,7 +10541,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B677" t="s">
         <v>131</v>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B678" t="s">
         <v>95</v>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B679" t="s">
         <v>161</v>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B680" t="s">
         <v>81</v>
@@ -10597,7 +10597,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B681" t="s">
         <v>220</v>
@@ -10611,7 +10611,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B682" t="s">
         <v>114</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B683" t="s">
         <v>13</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B684" t="s">
         <v>46</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B685" t="s">
         <v>32</v>
@@ -10667,7 +10667,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B686" t="s">
         <v>79</v>
@@ -10681,7 +10681,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B687" t="s">
         <v>9</v>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B688" t="s">
         <v>90</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B689" t="s">
         <v>10</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B690" t="s">
         <v>141</v>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B691" t="s">
         <v>59</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B692" t="s">
         <v>51</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B693" t="s">
         <v>80</v>
@@ -10779,7 +10779,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B694" t="s">
         <v>14</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B695" t="s">
         <v>168</v>
@@ -10807,7 +10807,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B696" t="s">
         <v>160</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B697" t="s">
         <v>72</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B698" t="s">
         <v>99</v>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B699" t="s">
         <v>154</v>
@@ -10863,7 +10863,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B700" t="s">
         <v>57</v>
@@ -10877,7 +10877,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B701" t="s">
         <v>74</v>
@@ -10891,7 +10891,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B702" t="s">
         <v>35</v>
@@ -10905,7 +10905,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B703" t="s">
         <v>112</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B704" t="s">
         <v>130</v>
@@ -10933,7 +10933,7 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B705" t="s">
         <v>126</v>
@@ -10947,7 +10947,7 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B706" t="s">
         <v>49</v>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B707" t="s">
         <v>62</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B708" t="s">
         <v>111</v>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B709" t="s">
         <v>88</v>
@@ -11003,7 +11003,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B710" t="s">
         <v>125</v>
@@ -11017,7 +11017,7 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B711" t="s">
         <v>84</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B712" t="s">
         <v>55</v>
@@ -11045,7 +11045,7 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B713" t="s">
         <v>60</v>
@@ -11059,7 +11059,7 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B714" t="s">
         <v>68</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B715" t="s">
         <v>4</v>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B716" t="s">
         <v>158</v>
@@ -11101,7 +11101,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B717" t="s">
         <v>183</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B718" t="s">
         <v>135</v>
@@ -11129,7 +11129,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B719" t="s">
         <v>11</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B720" t="s">
         <v>101</v>
@@ -11157,7 +11157,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B721" t="s">
         <v>63</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B722" t="s">
         <v>15</v>
@@ -11185,7 +11185,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B723" t="s">
         <v>83</v>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B724" t="s">
         <v>50</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B725" t="s">
         <v>109</v>
@@ -11227,7 +11227,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B726" t="s">
         <v>142</v>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B727" t="s">
         <v>156</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B728" t="s">
         <v>24</v>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B729" t="s">
         <v>97</v>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B730" t="s">
         <v>153</v>
@@ -11297,7 +11297,7 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B731" t="s">
         <v>93</v>
@@ -11311,7 +11311,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B732" t="s">
         <v>144</v>
@@ -11325,7 +11325,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B733" t="s">
         <v>76</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B734" t="s">
         <v>23</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B735" t="s">
         <v>46</v>
@@ -11367,7 +11367,7 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B736" t="s">
         <v>48</v>
@@ -11381,7 +11381,7 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B737" t="s">
         <v>39</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B738" t="s">
         <v>81</v>
@@ -11409,7 +11409,7 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B739" t="s">
         <v>43</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B740" t="s">
         <v>170</v>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B741" t="s">
         <v>74</v>
@@ -11451,7 +11451,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B742" t="s">
         <v>57</v>
@@ -11465,7 +11465,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B743" t="s">
         <v>164</v>
@@ -11479,7 +11479,7 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B744" t="s">
         <v>112</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B745" t="s">
         <v>137</v>
@@ -11507,7 +11507,7 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B746" t="s">
         <v>103</v>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B747" t="s">
         <v>167</v>
@@ -11535,7 +11535,7 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B748" t="s">
         <v>117</v>
@@ -11549,7 +11549,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B749" t="s">
         <v>99</v>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B750" t="s">
         <v>26</v>
@@ -11577,7 +11577,7 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B751" t="s">
         <v>47</v>
@@ -11591,7 +11591,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B752" t="s">
         <v>149</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B753" t="s">
         <v>27</v>
@@ -11619,7 +11619,7 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B754" t="s">
         <v>118</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B755" t="s">
         <v>35</v>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B756" t="s">
         <v>139</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B757" t="s">
         <v>107</v>
@@ -11675,7 +11675,7 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B758" t="s">
         <v>59</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B759" t="s">
         <v>165</v>
@@ -11703,7 +11703,7 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B760" t="s">
         <v>166</v>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B761" t="s">
         <v>133</v>
@@ -11731,7 +11731,7 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B762" t="s">
         <v>113</v>
@@ -11745,7 +11745,7 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B763" t="s">
         <v>44</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B764" t="s">
         <v>138</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B765" t="s">
         <v>62</v>
@@ -11787,7 +11787,7 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B766" t="s">
         <v>169</v>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B767" t="s">
         <v>45</v>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B768" t="s">
         <v>67</v>
@@ -11829,7 +11829,7 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B769" t="s">
         <v>78</v>
@@ -11843,7 +11843,7 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B770" t="s">
         <v>20</v>
@@ -11857,7 +11857,7 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B771" t="s">
         <v>88</v>
@@ -11871,7 +11871,7 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B772" t="s">
         <v>41</v>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B773" t="s">
         <v>34</v>
@@ -11899,7 +11899,7 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B774" t="s">
         <v>120</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B775" t="s">
         <v>125</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B776" t="s">
         <v>183</v>
@@ -11941,7 +11941,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B777" t="s">
         <v>52</v>
@@ -11955,7 +11955,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B778" t="s">
         <v>4</v>
@@ -11969,7 +11969,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B779" t="s">
         <v>92</v>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B780" t="s">
         <v>10</v>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B781" t="s">
         <v>69</v>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B782" t="s">
         <v>61</v>
@@ -12025,7 +12025,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B783" t="s">
         <v>18</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B784" t="s">
         <v>79</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B785" t="s">
         <v>159</v>
@@ -12067,7 +12067,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B786" t="s">
         <v>129</v>
@@ -12081,7 +12081,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B787" t="s">
         <v>162</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B788" t="s">
         <v>73</v>
@@ -12109,7 +12109,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B789" t="s">
         <v>83</v>
@@ -12123,7 +12123,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B790" t="s">
         <v>15</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B791" t="s">
         <v>150</v>
@@ -12151,7 +12151,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B792" t="s">
         <v>144</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B793" t="s">
         <v>53</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B794" t="s">
         <v>153</v>
@@ -12193,7 +12193,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B795" t="s">
         <v>131</v>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B796" t="s">
         <v>93</v>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B797" t="s">
         <v>119</v>
@@ -12235,7 +12235,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B798" t="s">
         <v>91</v>
@@ -12249,7 +12249,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B799" t="s">
         <v>161</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B800" t="s">
         <v>136</v>
@@ -12277,7 +12277,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B801" t="s">
         <v>147</v>
@@ -12291,7 +12291,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B802" t="s">
         <v>82</v>
@@ -12305,7 +12305,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B803" t="s">
         <v>68</v>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B804" t="s">
         <v>22</v>
@@ -12333,7 +12333,7 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B805" t="s">
         <v>148</v>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B806" t="s">
         <v>13</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B807" t="s">
         <v>220</v>
@@ -12375,7 +12375,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B808" t="s">
         <v>164</v>
@@ -12389,7 +12389,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B809" t="s">
         <v>74</v>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B810" t="s">
         <v>14</v>
@@ -12417,7 +12417,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B811" t="s">
         <v>170</v>
@@ -12431,7 +12431,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B812" t="s">
         <v>152</v>
@@ -12445,7 +12445,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B813" t="s">
         <v>90</v>
@@ -12459,7 +12459,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B814" t="s">
         <v>9</v>
@@ -12473,7 +12473,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B815" t="s">
         <v>149</v>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B816" t="s">
         <v>15</v>
@@ -12501,7 +12501,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B817" t="s">
         <v>117</v>
@@ -12515,7 +12515,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B818" t="s">
         <v>168</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B819" t="s">
         <v>124</v>
@@ -12543,7 +12543,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B820" t="s">
         <v>160</v>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B821" t="s">
         <v>116</v>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B822" t="s">
         <v>47</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B823" t="s">
         <v>122</v>
@@ -12599,7 +12599,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B824" t="s">
         <v>51</v>
@@ -12613,7 +12613,7 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B825" t="s">
         <v>105</v>
@@ -12627,7 +12627,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B826" t="s">
         <v>141</v>
@@ -12641,7 +12641,7 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B827" t="s">
         <v>28</v>
@@ -12655,7 +12655,7 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B828" t="s">
         <v>165</v>
@@ -12669,7 +12669,7 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B829" t="s">
         <v>16</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B830" t="s">
         <v>130</v>
@@ -12697,7 +12697,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B831" t="s">
         <v>36</v>
@@ -12711,7 +12711,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B832" t="s">
         <v>133</v>
@@ -12725,7 +12725,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B833" t="s">
         <v>111</v>
@@ -12739,7 +12739,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B834" t="s">
         <v>113</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B835" t="s">
         <v>55</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B836" t="s">
         <v>60</v>
@@ -12781,7 +12781,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B837" t="s">
         <v>143</v>
@@ -12795,7 +12795,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B838" t="s">
         <v>84</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B839" t="s">
         <v>65</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B840" t="s">
         <v>163</v>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B841" t="s">
         <v>158</v>
@@ -12851,7 +12851,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B842" t="s">
         <v>6</v>
@@ -12865,7 +12865,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B843" t="s">
         <v>217</v>
@@ -12879,7 +12879,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B844" t="s">
         <v>7</v>
@@ -12893,7 +12893,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B845" t="s">
         <v>8</v>
@@ -12907,7 +12907,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B846" t="s">
         <v>32</v>
@@ -12921,7 +12921,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B847" t="s">
         <v>104</v>
@@ -12935,7 +12935,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B848" t="s">
         <v>135</v>
@@ -12949,7 +12949,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B849" t="s">
         <v>63</v>
@@ -12963,7 +12963,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B850" t="s">
         <v>140</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B851" t="s">
         <v>96</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B852" t="s">
         <v>12</v>
@@ -13005,7 +13005,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B853" t="s">
         <v>109</v>
@@ -13019,7 +13019,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B854" t="s">
         <v>17</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B855" t="s">
         <v>155</v>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B856" t="s">
         <v>156</v>
@@ -13061,7 +13061,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B857" t="s">
         <v>157</v>
@@ -13075,7 +13075,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B858" t="s">
         <v>76</v>
@@ -13089,7 +13089,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B859" t="s">
         <v>24</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B860" t="s">
         <v>95</v>
@@ -13117,7 +13117,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B861" t="s">
         <v>86</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B862" t="s">
         <v>119</v>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B863" t="s">
         <v>145</v>
@@ -13159,7 +13159,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B864" t="s">
         <v>114</v>
@@ -13173,7 +13173,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B865" t="s">
         <v>38</v>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B866" t="s">
         <v>96</v>
@@ -13200,7 +13200,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Input Data/Update Elo/CFB_Sch_24-25 (DB Base).xlsx
+++ b/Input Data/Update Elo/CFB_Sch_24-25 (DB Base).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbolero\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/580bce16df9ec0bf/Documents/Navigate/CFP Simulator/Input Data/Update Elo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2164F768-2092-48BB-9995-C2B07272552F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2164F768-2092-48BB-9995-C2B07272552F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79910F6E-584A-4F23-9480-2E83ABE89A0A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1064,18 +1064,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D866"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A857" workbookViewId="0">
+      <selection activeCell="A867" sqref="A867"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>3</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>3</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>3</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>3</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>3</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>3</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>3</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>3</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>3</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>3</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>3</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>3</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>3</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>3</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>3</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>3</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>3</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>3</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>3</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>3</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>3</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>3</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>3</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>3</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>3</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>3</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>3</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>3</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>3</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>3</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>3</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>3</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>3</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>3</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>3</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>3</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>3</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>3</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>3</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>3</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>3</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>3</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>3</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>3</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>3</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>3</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>3</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>3</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>3</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>3</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>3</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>3</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>3</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>3</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>3</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>3</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>3</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>3</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>3</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>3</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>3</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>3</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>3</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>3</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>3</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>3</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>3</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>3</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>3</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>3</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>3</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>3</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>3</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>3</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>3</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>3</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>3</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>4</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>4</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>4</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>4</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>4</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>4</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>4</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>4</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>4</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>4</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>4</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>4</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>4</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>4</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>4</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>4</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>4</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>4</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>4</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>4</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>4</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>4</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>4</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>4</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>4</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>4</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>4</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>4</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>4</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>4</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>4</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>4</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>4</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>4</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>4</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>4</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>4</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>4</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>4</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>4</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>4</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>4</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>4</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>4</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>4</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>4</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>4</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>4</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>4</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>4</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>4</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>4</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>4</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>4</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>4</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>4</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>4</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>4</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>4</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>4</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>4</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>4</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>4</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>5</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>5</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>5</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>5</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>5</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>5</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>5</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>5</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>5</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>5</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>5</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>5</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>5</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>5</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>5</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>5</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>5</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>5</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>5</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>5</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>5</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>5</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>5</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>5</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>5</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>5</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>5</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>5</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>5</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>5</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>5</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>5</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>5</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>5</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>5</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>5</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>5</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>5</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>5</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>5</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>5</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>5</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>5</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>5</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>5</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>5</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>5</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>5</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>5</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>5</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>5</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>5</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>5</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>5</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>5</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>5</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>5</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>5</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>5</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>5</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>5</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>5</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>5</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>5</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>6</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>6</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>6</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>6</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>6</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>6</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>6</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>6</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>6</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>6</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>6</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>6</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>6</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>6</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>6</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>6</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>6</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>6</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>6</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>6</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>6</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>6</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>6</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>6</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>6</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>6</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>6</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>6</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>6</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>6</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>6</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>6</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>6</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>6</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>6</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>6</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>6</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>6</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>6</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>6</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>6</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>6</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>6</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>6</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>6</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>6</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>6</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>6</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>6</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>6</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>6</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>6</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>6</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>6</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>6</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>6</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>7</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>7</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>7</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>7</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>7</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>7</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>7</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>7</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>7</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>7</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>7</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>7</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>7</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>7</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>7</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>7</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>7</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>7</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>7</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>7</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>7</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>7</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>7</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>7</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>7</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>7</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>7</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>7</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>7</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>7</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>7</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>7</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>7</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>7</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>7</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>7</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>7</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>7</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>7</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>7</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>7</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>7</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>7</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>7</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>7</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>7</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>7</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>7</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>7</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>8</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>8</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>8</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>8</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>8</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>8</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>8</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>8</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>8</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>8</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>8</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>8</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>8</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>8</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>8</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>8</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>8</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>8</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>8</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>8</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>8</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>8</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>8</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>8</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>8</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>8</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>8</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>8</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>8</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>8</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>8</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>8</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>8</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>8</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>8</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>8</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>8</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>8</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>8</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>8</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>8</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>8</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>8</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>8</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>8</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>8</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>8</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>8</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>8</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>8</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>8</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>8</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>9</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>9</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>9</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>9</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>9</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>9</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>9</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>9</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>9</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>9</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>9</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>9</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>9</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>9</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>9</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>9</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>9</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>9</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>9</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>9</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>9</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>9</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>9</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>9</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>9</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>9</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>9</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>9</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>9</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>9</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>9</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>9</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>9</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>9</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>9</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>9</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>9</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>9</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>9</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>9</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>9</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>9</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>9</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>9</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>9</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>9</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>9</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>9</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>9</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>9</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>9</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>9</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>9</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>9</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>9</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>9</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>9</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>9</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>9</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>10</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>10</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>10</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>10</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>10</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>10</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>10</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>10</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>10</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>10</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>10</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>10</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>10</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>10</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>10</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>10</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>10</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>10</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>10</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>10</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>10</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>10</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>10</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>10</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>10</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>10</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>10</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>10</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>10</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>10</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>10</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>10</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>10</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>10</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>10</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>10</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>10</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>10</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>10</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>10</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>10</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>10</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>10</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>10</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>10</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>10</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>10</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>10</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>10</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>10</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>10</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>10</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>10</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>10</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>10</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>10</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>10</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>11</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>11</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>11</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>11</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>11</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>11</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>11</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>11</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>11</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>11</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>11</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>11</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>11</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>11</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>11</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>11</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>11</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>11</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>11</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>11</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>11</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>11</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>11</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>11</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>11</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>11</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>11</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>11</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>11</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>11</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>11</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>11</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>11</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>11</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>11</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>11</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>11</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>11</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>11</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>11</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>11</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>11</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>11</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>11</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>11</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>11</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>11</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>11</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>11</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>12</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>12</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>12</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>12</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>12</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>12</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>12</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>12</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>12</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>12</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>12</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>12</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>12</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>12</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>12</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>12</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>12</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>12</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>12</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>12</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>12</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>12</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>12</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>12</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>12</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>12</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>12</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>12</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>12</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>12</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>12</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>12</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>12</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>12</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>12</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>12</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>12</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>12</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>12</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>12</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>12</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>12</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>12</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>12</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>12</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>12</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>12</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>12</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>12</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>12</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>13</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>13</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>13</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>13</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>13</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>13</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>13</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>13</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>13</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>13</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>13</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>13</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>13</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>13</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>13</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>13</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>13</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>13</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>13</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>13</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>13</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>13</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>13</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>13</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>13</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>13</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>13</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>13</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>13</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>13</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>13</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>13</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>13</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>13</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>13</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>13</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>13</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>13</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>13</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>13</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>13</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>13</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>13</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>13</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>13</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>13</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>13</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>13</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>13</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>13</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>13</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>13</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>13</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>13</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>13</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>14</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>14</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>14</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>14</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>14</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>14</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>14</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>14</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>14</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>14</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>14</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>14</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>14</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>14</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>14</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>14</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>14</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>14</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>14</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>14</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>14</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>14</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>14</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>14</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>14</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>14</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>14</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>14</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>14</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>14</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>14</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>14</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>14</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>14</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>14</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>14</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>14</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>14</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>14</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>14</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>14</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>14</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>14</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>14</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>14</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>14</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>14</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>14</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>14</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>14</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>14</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>14</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>14</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>14</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>14</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>14</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>14</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A791">
         <v>14</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A792">
         <v>14</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A793">
         <v>14</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>14</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A795">
         <v>14</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>14</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A797">
         <v>14</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A798">
         <v>14</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>15</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>15</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A801">
         <v>15</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>15</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A803">
         <v>15</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A804">
         <v>15</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A805">
         <v>15</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>15</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807">
         <v>15</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>15</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A809">
         <v>15</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A810">
         <v>15</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A811">
         <v>15</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A812">
         <v>15</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A813">
         <v>15</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>15</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A815">
         <v>15</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A816">
         <v>15</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A817">
         <v>15</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A818">
         <v>15</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A819">
         <v>15</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A820">
         <v>15</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A821">
         <v>15</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A822">
         <v>15</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A823">
         <v>15</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A824">
         <v>15</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A825">
         <v>15</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A826">
         <v>15</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A827">
         <v>15</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A828">
         <v>15</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A829">
         <v>15</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A830">
         <v>15</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A831">
         <v>15</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A832">
         <v>15</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A833">
         <v>15</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A834">
         <v>15</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A835">
         <v>15</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A836">
         <v>15</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A837">
         <v>15</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A838">
         <v>15</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A839">
         <v>15</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A840">
         <v>15</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A841">
         <v>15</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A842">
         <v>15</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A843">
         <v>15</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A844">
         <v>15</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A845">
         <v>15</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A846">
         <v>15</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A847">
         <v>15</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A848">
         <v>15</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A849">
         <v>15</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A850">
         <v>15</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A851">
         <v>15</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A852">
         <v>15</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A853">
         <v>15</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A854">
         <v>15</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A855">
         <v>15</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A856">
         <v>15</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A857">
         <v>15</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A858">
         <v>15</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A859">
         <v>15</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A860">
         <v>15</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A861">
         <v>15</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A862">
         <v>15</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A863">
         <v>15</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A864">
         <v>15</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A865">
         <v>15</v>
       </c>
@@ -13185,9 +13185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A866">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B866" t="s">
         <v>96</v>
